--- a/src/main/resources/demo.xlsx
+++ b/src/main/resources/demo.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IDE\workspace\learn\easy-excel-learn\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duyafei/Workspace/IdeaProjects/self-study/easy-excel-learn/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7332138C-8BAD-4109-9A2B-992345AECDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F57D9D1-075D-3448-AF82-7C9BC08F5C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15500" yWindow="8220" windowWidth="28320" windowHeight="16040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="第三个" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,40 +41,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>张飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹邹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周瑜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>关羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹邹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周瑜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄忠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽-2</t>
+  </si>
+  <si>
+    <t>关羽-3</t>
   </si>
 </sst>
 </file>
@@ -83,13 +90,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -119,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,11 +406,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -418,7 +425,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>12312</v>
@@ -426,7 +433,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>12312</v>
@@ -434,7 +441,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>2342</v>
@@ -442,7 +449,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>23423.234</v>
@@ -450,7 +457,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>4534.45</v>
@@ -458,7 +465,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>34543</v>
@@ -466,7 +473,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>12312</v>
@@ -474,7 +481,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>12312</v>
@@ -482,7 +489,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>12312</v>
@@ -492,4 +499,200 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E8077D-B24D-CC44-A495-51CA54996266}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>23423.234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>4534.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>34543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>12312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB7B3A6-C3F0-6942-9A03-4E2B5BEC7854}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>23423.234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>4534.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>34543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>12312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>